--- a/motor-ZN.xlsx
+++ b/motor-ZN.xlsx
@@ -607,7 +607,7 @@
         <v>5.02656</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -618,10 +618,10 @@
         <v>5.25504</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -629,10 +629,10 @@
         <v>5.48352</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>48.34</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -640,10 +640,10 @@
         <v>5.712</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>50.92</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -651,10 +651,10 @@
         <v>5.94048</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>44.12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -662,10 +662,10 @@
         <v>6.168959999999999</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>42.17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -673,10 +673,10 @@
         <v>6.39744</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>47.36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -684,10 +684,10 @@
         <v>6.62592</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>54.16</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -695,10 +695,10 @@
         <v>6.8544</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -706,10 +706,10 @@
         <v>7.082879999999999</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>58.66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -717,10 +717,10 @@
         <v>7.31136</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -728,10 +728,10 @@
         <v>7.53984</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>64.78</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -739,10 +739,10 @@
         <v>7.768319999999999</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -750,10 +750,10 @@
         <v>7.996799999999999</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>71.13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -761,10 +761,10 @@
         <v>8.22528</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>73.36</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -772,10 +772,10 @@
         <v>8.453759999999999</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>76.06999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -783,10 +783,10 @@
         <v>8.68224</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>78.94</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -794,10 +794,10 @@
         <v>8.91072</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -805,10 +805,10 @@
         <v>9.139199999999999</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>83.89</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -816,10 +816,10 @@
         <v>9.36768</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>86.31</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -827,10 +827,10 @@
         <v>9.596159999999999</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>88.54000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -838,10 +838,10 @@
         <v>9.824639999999999</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>90.70999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -849,10 +849,10 @@
         <v>10.05312</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>90.98999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -860,10 +860,10 @@
         <v>10.2816</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -871,10 +871,10 @@
         <v>10.51008</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>98.31999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -882,10 +882,10 @@
         <v>10.73856</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>100.31</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -893,10 +893,10 @@
         <v>10.96704</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>101.46</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -904,10 +904,10 @@
         <v>11.19552</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>103.06</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -915,10 +915,10 @@
         <v>11.424</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>105.27</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -926,10 +926,10 @@
         <v>11.65248</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>107.43</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -937,10 +937,10 @@
         <v>11.88096</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>109.13</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -948,10 +948,10 @@
         <v>12.10944</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>110.77</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -959,10 +959,10 @@
         <v>12.33792</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>112.53</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -970,10 +970,10 @@
         <v>12.5664</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>114.2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -981,10 +981,10 @@
         <v>12.79488</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>115.84</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -992,10 +992,10 @@
         <v>13.02336</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>117.41</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1003,10 +1003,10 @@
         <v>13.25184</v>
       </c>
       <c r="B59">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>118.95</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1014,10 +1014,10 @@
         <v>13.48032</v>
       </c>
       <c r="B60">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>120.41</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1025,10 +1025,10 @@
         <v>13.7088</v>
       </c>
       <c r="B61">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>121.84</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1036,10 +1036,10 @@
         <v>13.93728</v>
       </c>
       <c r="B62">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>123.32</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1047,10 +1047,10 @@
         <v>14.16576</v>
       </c>
       <c r="B63">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C63">
-        <v>12.98</v>
+        <v>124.71</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1058,10 +1058,10 @@
         <v>14.39424</v>
       </c>
       <c r="B64">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C64">
-        <v>56.48</v>
+        <v>126.09</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1069,10 +1069,10 @@
         <v>14.62272</v>
       </c>
       <c r="B65">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C65">
-        <v>100.72</v>
+        <v>127.37</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1080,10 +1080,10 @@
         <v>14.8512</v>
       </c>
       <c r="B66">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C66">
-        <v>139.32</v>
+        <v>128.65</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1091,10 +1091,10 @@
         <v>15.07968</v>
       </c>
       <c r="B67">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C67">
-        <v>173.26</v>
+        <v>128.79</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1102,10 +1102,10 @@
         <v>15.30816</v>
       </c>
       <c r="B68">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C68">
-        <v>202.39</v>
+        <v>130.7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1113,10 +1113,10 @@
         <v>15.53664</v>
       </c>
       <c r="B69">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C69">
-        <v>227.41</v>
+        <v>132.58</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1124,10 +1124,10 @@
         <v>15.76512</v>
       </c>
       <c r="B70">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C70">
-        <v>249.65</v>
+        <v>133.78</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1135,10 +1135,10 @@
         <v>15.9936</v>
       </c>
       <c r="B71">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C71">
-        <v>266.34</v>
+        <v>134.63</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1146,10 +1146,10 @@
         <v>16.22208</v>
       </c>
       <c r="B72">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C72">
-        <v>275.65</v>
+        <v>135.55</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1157,10 +1157,10 @@
         <v>16.45056</v>
       </c>
       <c r="B73">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C73">
-        <v>276.3</v>
+        <v>136.67</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1168,10 +1168,10 @@
         <v>16.67904</v>
       </c>
       <c r="B74">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C74">
-        <v>266.37</v>
+        <v>137.72</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1179,10 +1179,10 @@
         <v>16.90752</v>
       </c>
       <c r="B75">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C75">
-        <v>247.04</v>
+        <v>138.76</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1190,10 +1190,10 @@
         <v>17.136</v>
       </c>
       <c r="B76">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C76">
-        <v>224.41</v>
+        <v>139.75</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1201,10 +1201,10 @@
         <v>17.36448</v>
       </c>
       <c r="B77">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C77">
-        <v>225.07</v>
+        <v>140.76</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1212,10 +1212,10 @@
         <v>17.59296</v>
       </c>
       <c r="B78">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C78">
-        <v>245.43</v>
+        <v>141.7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1223,10 +1223,10 @@
         <v>17.82144</v>
       </c>
       <c r="B79">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C79">
-        <v>262.15</v>
+        <v>142.61</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1234,10 +1234,10 @@
         <v>18.04992</v>
       </c>
       <c r="B80">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C80">
-        <v>273.15</v>
+        <v>143.47</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1245,10 +1245,10 @@
         <v>18.2784</v>
       </c>
       <c r="B81">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C81">
-        <v>275.74</v>
+        <v>144.45</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1256,10 +1256,10 @@
         <v>18.50688</v>
       </c>
       <c r="B82">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C82">
-        <v>266.94</v>
+        <v>145.28</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1267,10 +1267,10 @@
         <v>18.73536</v>
       </c>
       <c r="B83">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C83">
-        <v>248.95</v>
+        <v>146.01</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1278,10 +1278,10 @@
         <v>18.96384</v>
       </c>
       <c r="B84">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C84">
-        <v>227.25</v>
+        <v>146.78</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1289,10 +1289,10 @@
         <v>19.19232</v>
       </c>
       <c r="B85">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C85">
-        <v>226.01</v>
+        <v>147.55</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1300,10 +1300,10 @@
         <v>19.4208</v>
       </c>
       <c r="B86">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C86">
-        <v>243.9</v>
+        <v>148.28</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1311,10 +1311,10 @@
         <v>19.64928</v>
       </c>
       <c r="B87">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C87">
-        <v>260.36</v>
+        <v>148.99</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1322,10 +1322,10 @@
         <v>19.87776</v>
       </c>
       <c r="B88">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C88">
-        <v>271.9</v>
+        <v>149.71</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1333,10 +1333,10 @@
         <v>20.10624</v>
       </c>
       <c r="B89">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C89">
-        <v>275.85</v>
+        <v>149.75</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1344,10 +1344,10 @@
         <v>20.33472</v>
       </c>
       <c r="B90">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C90">
-        <v>269.37</v>
+        <v>150.79</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1355,10 +1355,10 @@
         <v>20.5632</v>
       </c>
       <c r="B91">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C91">
-        <v>253.3</v>
+        <v>151.83</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1366,10 +1366,10 @@
         <v>20.79168</v>
       </c>
       <c r="B92">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C92">
-        <v>231.75</v>
+        <v>152.65</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1377,10 +1377,10 @@
         <v>21.02016</v>
       </c>
       <c r="B93">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C93">
-        <v>221.24</v>
+        <v>153.3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1388,10 +1388,10 @@
         <v>21.24864</v>
       </c>
       <c r="B94">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C94">
-        <v>235.98</v>
+        <v>153.9</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1399,10 +1399,10 @@
         <v>21.47712</v>
       </c>
       <c r="B95">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C95">
-        <v>255.71</v>
+        <v>154.56</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1410,10 +1410,10 @@
         <v>21.7056</v>
       </c>
       <c r="B96">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C96">
-        <v>271.08</v>
+        <v>155.18</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1421,10 +1421,10 @@
         <v>21.93408</v>
       </c>
       <c r="B97">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C97">
-        <v>276.96</v>
+        <v>155.74</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1432,10 +1432,10 @@
         <v>22.16256</v>
       </c>
       <c r="B98">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C98">
-        <v>273.37</v>
+        <v>156.21</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1443,10 +1443,10 @@
         <v>22.39104</v>
       </c>
       <c r="B99">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C99">
-        <v>258.92</v>
+        <v>156.69</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1454,10 +1454,10 @@
         <v>22.61952</v>
       </c>
       <c r="B100">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C100">
-        <v>237.25</v>
+        <v>157.26</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1465,10 +1465,10 @@
         <v>22.848</v>
       </c>
       <c r="B101">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C101">
-        <v>221.51</v>
+        <v>157.78</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1476,10 +1476,10 @@
         <v>23.07648</v>
       </c>
       <c r="B102">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C102">
-        <v>232.85</v>
+        <v>158.23</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1487,10 +1487,10 @@
         <v>23.30496</v>
       </c>
       <c r="B103">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C103">
-        <v>253</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1498,10 +1498,10 @@
         <v>23.53344</v>
       </c>
       <c r="B104">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C104">
-        <v>268.22</v>
+        <v>159.2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1509,10 +1509,10 @@
         <v>23.76192</v>
       </c>
       <c r="B105">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C105">
-        <v>275.56</v>
+        <v>159.74</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1520,10 +1520,10 @@
         <v>23.9904</v>
       </c>
       <c r="B106">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C106">
-        <v>273.39</v>
+        <v>160.28</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1531,10 +1531,10 @@
         <v>24.21888</v>
       </c>
       <c r="B107">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C107">
-        <v>260.93</v>
+        <v>160.74</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1542,10 +1542,10 @@
         <v>24.44736</v>
       </c>
       <c r="B108">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C108">
-        <v>240.29</v>
+        <v>161.17</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1553,10 +1553,10 @@
         <v>24.67584</v>
       </c>
       <c r="B109">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C109">
-        <v>221.2</v>
+        <v>161.53</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1564,10 +1564,10 @@
         <v>24.90432</v>
       </c>
       <c r="B110">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C110">
-        <v>229.84</v>
+        <v>161.94</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1575,10 +1575,10 @@
         <v>25.1328</v>
       </c>
       <c r="B111">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C111">
-        <v>250.48</v>
+        <v>161.95</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1586,10 +1586,10 @@
         <v>25.36128</v>
       </c>
       <c r="B112">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C112">
-        <v>265.81</v>
+        <v>162.52</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1597,10 +1597,10 @@
         <v>25.58976</v>
       </c>
       <c r="B113">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C113">
-        <v>275.15</v>
+        <v>163.18</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1608,10 +1608,10 @@
         <v>25.81824</v>
       </c>
       <c r="B114">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C114">
-        <v>274.81</v>
+        <v>163.67</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1619,10 +1619,10 @@
         <v>26.04672</v>
       </c>
       <c r="B115">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C115">
-        <v>263.71</v>
+        <v>164.02</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1630,10 +1630,10 @@
         <v>26.2752</v>
       </c>
       <c r="B116">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C116">
-        <v>247.27</v>
+        <v>164.29</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1641,10 +1641,10 @@
         <v>26.50368</v>
       </c>
       <c r="B117">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C117">
-        <v>246.36</v>
+        <v>164.64</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1652,10 +1652,10 @@
         <v>26.73216</v>
       </c>
       <c r="B118">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C118">
-        <v>233.4</v>
+        <v>165.02</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1663,10 +1663,10 @@
         <v>26.96064</v>
       </c>
       <c r="B119">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C119">
-        <v>226.59</v>
+        <v>165.33</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1674,10 +1674,10 @@
         <v>27.18912</v>
       </c>
       <c r="B120">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C120">
-        <v>242.12</v>
+        <v>165.72</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1685,10 +1685,10 @@
         <v>27.4176</v>
       </c>
       <c r="B121">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C121">
-        <v>259.77</v>
+        <v>166.12</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1696,10 +1696,10 @@
         <v>27.64608</v>
       </c>
       <c r="B122">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C122">
-        <v>272.16</v>
+        <v>166.49</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1707,10 +1707,10 @@
         <v>27.87456</v>
       </c>
       <c r="B123">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C123">
-        <v>277.15</v>
+        <v>166.81</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1718,10 +1718,10 @@
         <v>28.10304</v>
       </c>
       <c r="B124">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C124">
-        <v>271.59</v>
+        <v>167.08</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1729,10 +1729,10 @@
         <v>28.33152</v>
       </c>
       <c r="B125">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C125">
-        <v>256.15</v>
+        <v>167.33</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1740,10 +1740,10 @@
         <v>28.56</v>
       </c>
       <c r="B126">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C126">
-        <v>233.23</v>
+        <v>167.6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1751,10 +1751,10 @@
         <v>28.78848</v>
       </c>
       <c r="B127">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C127">
-        <v>221.79</v>
+        <v>167.91</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1762,10 +1762,10 @@
         <v>29.01696</v>
       </c>
       <c r="B128">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C128">
-        <v>235.96</v>
+        <v>168.18</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1773,10 +1773,10 @@
         <v>29.24544</v>
       </c>
       <c r="B129">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C129">
-        <v>256.08</v>
+        <v>168.43</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1784,10 +1784,10 @@
         <v>29.47392</v>
       </c>
       <c r="B130">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C130">
-        <v>270.47</v>
+        <v>168.7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1795,10 +1795,10 @@
         <v>29.7024</v>
       </c>
       <c r="B131">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C131">
-        <v>277.11</v>
+        <v>168.96</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1806,10 +1806,10 @@
         <v>29.93088</v>
       </c>
       <c r="B132">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C132">
-        <v>273.66</v>
+        <v>169.18</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1817,10 +1817,10 @@
         <v>30.15936</v>
       </c>
       <c r="B133">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C133">
-        <v>259.24</v>
+        <v>169.16</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1828,10 +1828,10 @@
         <v>30.38784</v>
       </c>
       <c r="B134">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C134">
-        <v>237.05</v>
+        <v>169.51</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1839,10 +1839,10 @@
         <v>30.61632</v>
       </c>
       <c r="B135">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C135">
-        <v>218.53</v>
+        <v>169.84</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1850,10 +1850,10 @@
         <v>30.8448</v>
       </c>
       <c r="B136">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C136">
-        <v>224.49</v>
+        <v>170.11</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1861,10 +1861,10 @@
         <v>31.07328</v>
       </c>
       <c r="B137">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C137">
-        <v>245.49</v>
+        <v>170.31</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1872,10 +1872,10 @@
         <v>31.30176</v>
       </c>
       <c r="B138">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C138">
-        <v>262.54</v>
+        <v>170.48</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1883,10 +1883,10 @@
         <v>31.53024</v>
       </c>
       <c r="B139">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C139">
-        <v>273.14</v>
+        <v>170.7</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1894,10 +1894,10 @@
         <v>31.75872</v>
       </c>
       <c r="B140">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C140">
-        <v>275.02</v>
+        <v>170.92</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1905,10 +1905,10 @@
         <v>31.9872</v>
       </c>
       <c r="B141">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C141">
-        <v>267.33</v>
+        <v>171.13</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1916,10 +1916,10 @@
         <v>32.21568</v>
       </c>
       <c r="B142">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C142">
-        <v>249.29</v>
+        <v>171.28</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1927,10 +1927,10 @@
         <v>32.44416</v>
       </c>
       <c r="B143">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C143">
-        <v>227.84</v>
+        <v>171.4</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1938,10 +1938,10 @@
         <v>32.67264</v>
       </c>
       <c r="B144">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C144">
-        <v>225.16</v>
+        <v>171.58</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1949,10 +1949,10 @@
         <v>32.90112</v>
       </c>
       <c r="B145">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C145">
-        <v>241.74</v>
+        <v>171.8</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1960,10 +1960,10 @@
         <v>33.1296</v>
       </c>
       <c r="B146">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C146">
-        <v>261.09</v>
+        <v>172.01</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1971,10 +1971,10 @@
         <v>33.35808</v>
       </c>
       <c r="B147">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C147">
-        <v>274.35</v>
+        <v>172.18</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1982,10 +1982,10 @@
         <v>33.58656</v>
       </c>
       <c r="B148">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C148">
-        <v>278.12</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1993,10 +1993,10 @@
         <v>33.81504</v>
       </c>
       <c r="B149">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C149">
-        <v>271.5</v>
+        <v>172.53</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2004,10 +2004,10 @@
         <v>34.04352</v>
       </c>
       <c r="B150">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C150">
-        <v>255.37</v>
+        <v>172.72</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2015,10 +2015,10 @@
         <v>34.272</v>
       </c>
       <c r="B151">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C151">
-        <v>241.77</v>
+        <v>172.94</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2026,10 +2026,10 @@
         <v>34.50048</v>
       </c>
       <c r="B152">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C152">
-        <v>218.03</v>
+        <v>173.12</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2037,10 +2037,10 @@
         <v>34.72896</v>
       </c>
       <c r="B153">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C153">
-        <v>225.49</v>
+        <v>173.33</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2048,10 +2048,10 @@
         <v>34.95744</v>
       </c>
       <c r="B154">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C154">
-        <v>246.02</v>
+        <v>173.41</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2059,10 +2059,10 @@
         <v>35.18592</v>
       </c>
       <c r="B155">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C155">
-        <v>262.88</v>
+        <v>173.37</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2070,10 +2070,10 @@
         <v>35.4144</v>
       </c>
       <c r="B156">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C156">
-        <v>273.7</v>
+        <v>173.53</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2081,10 +2081,10 @@
         <v>35.64288</v>
       </c>
       <c r="B157">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C157">
-        <v>276.31</v>
+        <v>173.76</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2092,10 +2092,10 @@
         <v>35.87136</v>
       </c>
       <c r="B158">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C158">
-        <v>267.19</v>
+        <v>173.92</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2103,10 +2103,10 @@
         <v>36.09984</v>
       </c>
       <c r="B159">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C159">
-        <v>249.3</v>
+        <v>174.08</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2114,10 +2114,10 @@
         <v>36.32832</v>
       </c>
       <c r="B160">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C160">
-        <v>226.65</v>
+        <v>174.26</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2125,10 +2125,10 @@
         <v>36.5568</v>
       </c>
       <c r="B161">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C161">
-        <v>229.09</v>
+        <v>174.38</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2136,10 +2136,10 @@
         <v>36.78528</v>
       </c>
       <c r="B162">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C162">
-        <v>248.09</v>
+        <v>174.51</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2147,10 +2147,10 @@
         <v>37.01376</v>
       </c>
       <c r="B163">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C163">
-        <v>264.34</v>
+        <v>174.62</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2158,10 +2158,10 @@
         <v>37.24224</v>
       </c>
       <c r="B164">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C164">
-        <v>273.9</v>
+        <v>174.7</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2169,10 +2169,10 @@
         <v>37.47072</v>
       </c>
       <c r="B165">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C165">
-        <v>274.4</v>
+        <v>174.78</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2180,10 +2180,10 @@
         <v>37.6992</v>
       </c>
       <c r="B166">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C166">
-        <v>264.96</v>
+        <v>174.85</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2191,10 +2191,10 @@
         <v>37.92768</v>
       </c>
       <c r="B167">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C167">
-        <v>246.77</v>
+        <v>174.96</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2202,10 +2202,10 @@
         <v>38.15616</v>
       </c>
       <c r="B168">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C168">
-        <v>224.09</v>
+        <v>175.12</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2213,10 +2213,10 @@
         <v>38.38464</v>
       </c>
       <c r="B169">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C169">
-        <v>228.95</v>
+        <v>175.26</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2224,10 +2224,10 @@
         <v>38.61312</v>
       </c>
       <c r="B170">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C170">
-        <v>249.44</v>
+        <v>175.37</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2235,10 +2235,10 @@
         <v>38.8416</v>
       </c>
       <c r="B171">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C171">
-        <v>265.3</v>
+        <v>175.47</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2246,10 +2246,10 @@
         <v>39.07008</v>
       </c>
       <c r="B172">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C172">
-        <v>274.31</v>
+        <v>175.55</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2257,10 +2257,10 @@
         <v>39.29855999999999</v>
       </c>
       <c r="B173">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C173">
-        <v>274.1</v>
+        <v>175.64</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2268,10 +2268,10 @@
         <v>39.52704</v>
       </c>
       <c r="B174">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C174">
-        <v>263.56</v>
+        <v>175.73</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2279,10 +2279,10 @@
         <v>39.75552</v>
       </c>
       <c r="B175">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C175">
-        <v>258.77</v>
+        <v>175.79</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2290,10 +2290,10 @@
         <v>39.98399999999999</v>
       </c>
       <c r="B176">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C176">
-        <v>237.27</v>
+        <v>175.91</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2301,10 +2301,10 @@
         <v>40.21248</v>
       </c>
       <c r="B177">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C177">
-        <v>226.87</v>
+        <v>175.87</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2312,10 +2312,10 @@
         <v>40.44096</v>
       </c>
       <c r="B178">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C178">
-        <v>234.37</v>
+        <v>176.05</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2323,10 +2323,10 @@
         <v>40.66943999999999</v>
       </c>
       <c r="B179">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C179">
-        <v>254.37</v>
+        <v>176.14</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2334,10 +2334,10 @@
         <v>40.89792</v>
       </c>
       <c r="B180">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C180">
-        <v>269.32</v>
+        <v>176.22</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2345,10 +2345,10 @@
         <v>41.1264</v>
       </c>
       <c r="B181">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C181">
-        <v>277.16</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2356,10 +2356,10 @@
         <v>41.35488</v>
       </c>
       <c r="B182">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C182">
-        <v>273.7</v>
+        <v>176.35</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2367,10 +2367,10 @@
         <v>41.58336</v>
       </c>
       <c r="B183">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C183">
-        <v>259.19</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2378,10 +2378,10 @@
         <v>41.81184</v>
       </c>
       <c r="B184">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C184">
-        <v>243.75</v>
+        <v>176.45</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2389,10 +2389,10 @@
         <v>42.04032</v>
       </c>
       <c r="B185">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C185">
-        <v>224.7</v>
+        <v>176.53</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2400,10 +2400,10 @@
         <v>42.2688</v>
       </c>
       <c r="B186">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C186">
-        <v>229.24</v>
+        <v>176.66</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2411,10 +2411,10 @@
         <v>42.49728</v>
       </c>
       <c r="B187">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C187">
-        <v>249.41</v>
+        <v>176.78</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2422,10 +2422,10 @@
         <v>42.72576</v>
       </c>
       <c r="B188">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C188">
-        <v>265.64</v>
+        <v>176.81</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2433,10 +2433,10 @@
         <v>42.95424</v>
       </c>
       <c r="B189">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C189">
-        <v>274.77</v>
+        <v>176.91</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2444,10 +2444,10 @@
         <v>43.18272</v>
       </c>
       <c r="B190">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C190">
-        <v>274.4</v>
+        <v>177.06</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2455,10 +2455,10 @@
         <v>43.4112</v>
       </c>
       <c r="B191">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C191">
-        <v>263.82</v>
+        <v>177.12</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2466,10 +2466,10 @@
         <v>43.63968</v>
       </c>
       <c r="B192">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C192">
-        <v>248.47</v>
+        <v>177.07</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2477,10 +2477,10 @@
         <v>43.86816</v>
       </c>
       <c r="B193">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C193">
-        <v>231.35</v>
+        <v>177.05</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2488,10 +2488,10 @@
         <v>44.09664</v>
       </c>
       <c r="B194">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C194">
-        <v>221.97</v>
+        <v>177.14</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2499,10 +2499,10 @@
         <v>44.32512</v>
       </c>
       <c r="B195">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C195">
-        <v>237.2</v>
+        <v>177.26</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2510,10 +2510,10 @@
         <v>44.5536</v>
       </c>
       <c r="B196">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C196">
-        <v>256.9</v>
+        <v>177.4</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2521,10 +2521,10 @@
         <v>44.78208</v>
       </c>
       <c r="B197">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C197">
-        <v>272.15</v>
+        <v>177.52</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2532,10 +2532,10 @@
         <v>45.01056</v>
       </c>
       <c r="B198">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C198">
-        <v>277.37</v>
+        <v>177.61</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2543,10 +2543,10 @@
         <v>45.23904</v>
       </c>
       <c r="B199">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C199">
-        <v>272.64</v>
+        <v>177.56</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2554,10 +2554,10 @@
         <v>45.46752</v>
       </c>
       <c r="B200">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C200">
-        <v>257.88</v>
+        <v>177.6</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2565,10 +2565,10 @@
         <v>45.696</v>
       </c>
       <c r="B201">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C201">
-        <v>234.71</v>
+        <v>177.67</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2576,10 +2576,10 @@
         <v>45.92448</v>
       </c>
       <c r="B202">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C202">
-        <v>221.96</v>
+        <v>177.73</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2587,10 +2587,10 @@
         <v>46.15296</v>
       </c>
       <c r="B203">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C203">
-        <v>235.21</v>
+        <v>177.83</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2598,10 +2598,10 @@
         <v>46.38144</v>
       </c>
       <c r="B204">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C204">
-        <v>255.17</v>
+        <v>177.91</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2609,10 +2609,10 @@
         <v>46.60992</v>
       </c>
       <c r="B205">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C205">
-        <v>270.37</v>
+        <v>177.93</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2620,10 +2620,10 @@
         <v>46.8384</v>
       </c>
       <c r="B206">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C206">
-        <v>277.08</v>
+        <v>177.95</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2631,10 +2631,10 @@
         <v>47.06688</v>
       </c>
       <c r="B207">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C207">
-        <v>273.54</v>
+        <v>177.95</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2642,10 +2642,10 @@
         <v>47.29536</v>
       </c>
       <c r="B208">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C208">
-        <v>259.83</v>
+        <v>177.97</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2653,10 +2653,10 @@
         <v>47.52384</v>
       </c>
       <c r="B209">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C209">
-        <v>237.91</v>
+        <v>177.98</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2664,10 +2664,10 @@
         <v>47.75232</v>
       </c>
       <c r="B210">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C210">
-        <v>221.43</v>
+        <v>178.01</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2675,10 +2675,10 @@
         <v>47.9808</v>
       </c>
       <c r="B211">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C211">
-        <v>231.58</v>
+        <v>178.08</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2686,10 +2686,10 @@
         <v>48.20928</v>
       </c>
       <c r="B212">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C212">
-        <v>252.22</v>
+        <v>178.17</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2697,10 +2697,10 @@
         <v>48.43776</v>
       </c>
       <c r="B213">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C213">
-        <v>267.36</v>
+        <v>178.19</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2708,10 +2708,10 @@
         <v>48.66623999999999</v>
       </c>
       <c r="B214">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C214">
-        <v>276.38</v>
+        <v>178.24</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2719,10 +2719,10 @@
         <v>48.89472</v>
       </c>
       <c r="B215">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C215">
-        <v>275.15</v>
+        <v>178.29</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2730,10 +2730,10 @@
         <v>49.1232</v>
       </c>
       <c r="B216">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C216">
-        <v>262.83</v>
+        <v>178.37</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2741,10 +2741,10 @@
         <v>49.35167999999999</v>
       </c>
       <c r="B217">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C217">
-        <v>245.72</v>
+        <v>178.37</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2752,10 +2752,10 @@
         <v>49.58016</v>
       </c>
       <c r="B218">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C218">
-        <v>229.43</v>
+        <v>178.4</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2763,10 +2763,10 @@
         <v>49.80864</v>
       </c>
       <c r="B219">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C219">
-        <v>223.81</v>
+        <v>178.45</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2774,10 +2774,10 @@
         <v>50.03711999999999</v>
       </c>
       <c r="B220">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C220">
-        <v>240.17</v>
+        <v>178.49</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2785,10 +2785,10 @@
         <v>50.2656</v>
       </c>
       <c r="B221">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C221">
-        <v>260.56</v>
+        <v>178.43</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2796,10 +2796,10 @@
         <v>50.49408</v>
       </c>
       <c r="B222">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C222">
-        <v>274.78</v>
+        <v>178.46</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2807,10 +2807,10 @@
         <v>50.72255999999999</v>
       </c>
       <c r="B223">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C223">
-        <v>279.38</v>
+        <v>178.48</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2818,10 +2818,10 @@
         <v>50.95104</v>
       </c>
       <c r="B224">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C224">
-        <v>273.24</v>
+        <v>178.47</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2829,10 +2829,10 @@
         <v>51.17952</v>
       </c>
       <c r="B225">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C225">
-        <v>256.76</v>
+        <v>178.49</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2840,10 +2840,10 @@
         <v>51.40799999999999</v>
       </c>
       <c r="B226">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C226">
-        <v>239.08</v>
+        <v>178.55</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2851,10 +2851,10 @@
         <v>51.63648</v>
       </c>
       <c r="B227">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C227">
-        <v>227.44</v>
+        <v>178.59</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2862,10 +2862,10 @@
         <v>51.86496</v>
       </c>
       <c r="B228">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C228">
-        <v>236.13</v>
+        <v>178.6</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2873,10 +2873,10 @@
         <v>52.09343999999999</v>
       </c>
       <c r="B229">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C229">
-        <v>255.95</v>
+        <v>178.59</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2884,10 +2884,10 @@
         <v>52.32192</v>
       </c>
       <c r="B230">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C230">
-        <v>270.36</v>
+        <v>178.66</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2895,10 +2895,10 @@
         <v>52.5504</v>
       </c>
       <c r="B231">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C231">
-        <v>276.57</v>
+        <v>178.75</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2906,10 +2906,10 @@
         <v>52.77888</v>
       </c>
       <c r="B232">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C232">
-        <v>272.38</v>
+        <v>178.75</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2917,10 +2917,10 @@
         <v>53.00736</v>
       </c>
       <c r="B233">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C233">
-        <v>269.29</v>
+        <v>178.71</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2928,10 +2928,10 @@
         <v>53.23584</v>
       </c>
       <c r="B234">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C234">
-        <v>252.34</v>
+        <v>178.75</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2939,10 +2939,10 @@
         <v>53.46432</v>
       </c>
       <c r="B235">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C235">
-        <v>230.05</v>
+        <v>178.8</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2950,10 +2950,10 @@
         <v>53.6928</v>
       </c>
       <c r="B236">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C236">
-        <v>219.77</v>
+        <v>178.85</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2961,10 +2961,10 @@
         <v>53.92128</v>
       </c>
       <c r="B237">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C237">
-        <v>235.34</v>
+        <v>178.92</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2972,10 +2972,10 @@
         <v>54.14976</v>
       </c>
       <c r="B238">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C238">
-        <v>255.48</v>
+        <v>178.97</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2983,10 +2983,10 @@
         <v>54.37824</v>
       </c>
       <c r="B239">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C239">
-        <v>270.8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -2994,10 +2994,10 @@
         <v>54.60672</v>
       </c>
       <c r="B240">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C240">
-        <v>276.9</v>
+        <v>179.02</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3005,10 +3005,10 @@
         <v>54.8352</v>
       </c>
       <c r="B241">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C241">
-        <v>273.19</v>
+        <v>179.05</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3016,10 +3016,10 @@
         <v>55.06368</v>
       </c>
       <c r="B242">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C242">
-        <v>259.13</v>
+        <v>179.11</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3027,10 +3027,10 @@
         <v>55.29216</v>
       </c>
       <c r="B243">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C243">
-        <v>237.98</v>
+        <v>179.06</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3038,10 +3038,10 @@
         <v>55.52064</v>
       </c>
       <c r="B244">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C244">
-        <v>220.93</v>
+        <v>179.16</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3049,10 +3049,10 @@
         <v>55.74912</v>
       </c>
       <c r="B245">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C245">
-        <v>232.33</v>
+        <v>179.24</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3060,10 +3060,10 @@
         <v>55.9776</v>
       </c>
       <c r="B246">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C246">
-        <v>252.67</v>
+        <v>179.25</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3071,10 +3071,10 @@
         <v>56.20608</v>
       </c>
       <c r="B247">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C247">
-        <v>268.05</v>
+        <v>179.27</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3082,10 +3082,10 @@
         <v>56.43456</v>
       </c>
       <c r="B248">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C248">
-        <v>276.01</v>
+        <v>179.29</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3093,10 +3093,10 @@
         <v>56.66304</v>
       </c>
       <c r="B249">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C249">
-        <v>274.36</v>
+        <v>179.31</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3104,10 +3104,10 @@
         <v>56.89152</v>
       </c>
       <c r="B250">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C250">
-        <v>261.34</v>
+        <v>179.32</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3115,10 +3115,10 @@
         <v>57.12</v>
       </c>
       <c r="B251">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C251">
-        <v>240.27</v>
+        <v>179.34</v>
       </c>
     </row>
   </sheetData>
